--- a/biology/Zoologie/Colibri_robinson/Colibri_robinson.xlsx
+++ b/biology/Zoologie/Colibri_robinson/Colibri_robinson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sephanoides fernandensis
 Le Colibri robinson (Sephanoides fernandensis) est une espèce de colibri.
@@ -513,7 +525,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de l'archipel Juan Fernández au large du Chili.
 </t>
@@ -544,7 +558,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts humides de basses altitudes, et les végétations humides de broussailles. On la trouve aussi dans les zones urbaines et les jardins ruraux.
 </t>
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs de Rhaphithamnus venustus, connu localement sous le nom Juan Bueno et endémique de Archipel Juan Fernández, à l'est du Chili, sont une importante source de nectar pour le Colibri robinson.
 </t>
@@ -606,7 +624,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des deux sous-espèces suivantes :
 Sephanoides fernandensis fernandensis (King, 1831) de l'île Robinson Crusoe ;
